--- a/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
+++ b/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VCNs" sheetId="1" r:id="rId1"/>
     <sheet name="Subnets" sheetId="2" r:id="rId2"/>
     <sheet name="DHCP" sheetId="3" r:id="rId3"/>
     <sheet name="Instances" sheetId="4" r:id="rId4"/>
-    <sheet name="BockVols" sheetId="5" r:id="rId5"/>
+    <sheet name="BlockVols" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -621,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
+++ b/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VCNs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Regional</t>
   </si>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>host_name</t>
-  </si>
-  <si>
-    <t>availability_domain
-(0,1,2)</t>
   </si>
   <si>
     <t>fault_domain
@@ -222,6 +218,10 @@
   </si>
   <si>
     <t>configure IGW (y|n)</t>
+  </si>
+  <si>
+    <t>dhcp_option_name
+(Leave blank if default dhcp option needs to be used)</t>
   </si>
 </sst>
 </file>
@@ -673,25 +673,25 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
@@ -700,30 +700,30 @@
         <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -732,7 +732,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,47 +777,47 @@
     <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
+      <c r="G1" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -829,16 +829,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -918,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -930,44 +930,44 @@
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +981,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,66 +1002,66 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1093,42 +1093,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
+++ b/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VCNs" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="DHCP" sheetId="3" r:id="rId3"/>
     <sheet name="Instances" sheetId="4" r:id="rId4"/>
     <sheet name="BlockVols" sheetId="5" r:id="rId5"/>
+    <sheet name="Tags" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
   <si>
     <t>Regional</t>
   </si>
@@ -222,13 +223,109 @@
   <si>
     <t>dhcp_option_name
 (Leave blank if default dhcp option needs to be used)</t>
+  </si>
+  <si>
+    <t>TagNamespace</t>
+  </si>
+  <si>
+    <t>RyderApplication</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>Enviroment</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>Windows2012</t>
+  </si>
+  <si>
+    <t>dev-ut-dmz</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>CLEO</t>
+  </si>
+  <si>
+    <t>Suse12sp4</t>
+  </si>
+  <si>
+    <t>dev-ut-app</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>OL76</t>
+  </si>
+  <si>
+    <t>qa-dmz</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>dr-db-clnt</t>
+  </si>
+  <si>
+    <t>dr-db-bkp</t>
+  </si>
+  <si>
+    <t>dr-dmz</t>
+  </si>
+  <si>
+    <t>dr-app</t>
+  </si>
+  <si>
+    <t>phx-acs</t>
+  </si>
+  <si>
+    <t>ash-ad</t>
+  </si>
+  <si>
+    <t>ash-acs</t>
+  </si>
+  <si>
+    <t>prod-db-clnt</t>
+  </si>
+  <si>
+    <t>prod-db-bkp</t>
+  </si>
+  <si>
+    <t>prod-dmz</t>
+  </si>
+  <si>
+    <t>prod-app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +339,21 @@
       <color rgb="FF808080"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -264,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -298,11 +410,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -315,6 +453,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1158,4 +1316,223 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://console.us-ashburn-1.oraclecloud.com/a/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaa77lkexyrq5t4gpuirhdetct5psrmbouinhad2s5soycj4jyimlwq/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaavfzlvfl6ndwskbl5nn2k6kz55kgjrad6x6vniyjopngwgc627vbq"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="D11" r:id="rId3" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="D12" r:id="rId4" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="D13" r:id="rId5" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
+++ b/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="VCNs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Regional</t>
   </si>
@@ -454,14 +454,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -469,6 +463,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,9 +795,10 @@
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -828,8 +829,11 @@
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -861,7 +865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -893,19 +897,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1322,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
@@ -1353,10 +1357,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1370,8 +1374,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1385,14 +1389,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1400,8 +1404,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="1"/>
@@ -1413,8 +1417,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="1"/>
@@ -1424,8 +1428,8 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>87</v>
@@ -1433,17 +1437,17 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>89</v>
@@ -1451,44 +1455,44 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>93</v>
@@ -1496,8 +1500,8 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>94</v>
@@ -1505,17 +1509,17 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>96</v>

--- a/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
+++ b/oci_tenancy/base_tf_creation_v3.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VCNs" sheetId="1" r:id="rId1"/>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
